--- a/doc/POST参数/post参数.xlsx
+++ b/doc/POST参数/post参数.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ss_vue_express\express\doc\POST参数\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28700" windowHeight="12990"/>
+    <workbookView windowWidth="24135" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -27,24 +22,22 @@
     <author>Ada</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ZHANG Wei AG:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -52,9 +45,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对单个字段进行检查（例如检查用户唯一性已经密码的正确性
@@ -63,18 +54,15 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>validatePartFormat+validateCURecordInfoFormat</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>验证格式
@@ -83,25 +71,22 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>validateSingleRecorderFieldValue</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>验证单个值</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -123,24 +108,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ZHANG Wei AG:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -148,9 +131,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>判断输入记录是否和db中存储的一直（例如登录）</t>
@@ -162,7 +143,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>recordInfo</t>
+  </si>
   <si>
     <t>currentColl</t>
   </si>
@@ -170,16 +154,31 @@
     <t>currentPage</t>
   </si>
   <si>
+    <t>recIdArr</t>
+  </si>
+  <si>
     <t>searchParams</t>
   </si>
   <si>
     <t>filterFieldValue</t>
   </si>
   <si>
+    <t>editSubField</t>
+  </si>
+  <si>
+    <t>eventField</t>
+  </si>
+  <si>
+    <t>singleField</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
     <t>create</t>
   </si>
   <si>
-    <t>{field1:{value:xxxx},fkField:{value:yyyyy}}}
+    <t>{field1:xxxx,fkField:yyyyy}}
 若xxxx/yyyy为null/空（数组，对象，字符）：如require，报错；否则直接删除字段</t>
   </si>
   <si>
@@ -191,7 +190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">×
 </t>
@@ -215,7 +214,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">×
 </t>
@@ -231,6 +230,9 @@
     </r>
   </si>
   <si>
+    <t>field:xxx</t>
+  </si>
+  <si>
     <t>update</t>
   </si>
   <si>
@@ -239,7 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">×
 </t>
@@ -260,7 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">×
 </t>
@@ -276,222 +278,11 @@
     </r>
   </si>
   <si>
-    <t>search</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，选择全部记率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-{field: [  {value:xxx}  ,   {value:yyy,comOp:'gt'}   ]  }
-{fkField: { relatedFkField: [ {value:zzzz,  comOp:'lt' }]  }}</t>
-    </r>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">√
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除以后，需要把后续的记录补上</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">√
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>补上记录的条件</t>
-    </r>
-  </si>
-  <si>
-    <t>filterFieldvalue</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>{field:xxx }
-{fkField:{relatedFkField:xxx} }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因为过滤字段值只考虑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>like</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作，所以无需</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">comOP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果值为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(null)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，则返回所有记录；如果超出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maxLe.gth/max/min</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，则不查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>db</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，直接返回空数组</t>
-    </r>
-  </si>
-  <si>
-    <t>eventField</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>用于字段值为array或者mixed操作，对其中的元素进行添加/删除/移动（使用edit，而不是update，防止混淆）
+fieldName:{from: eleArray中元素，原始位于哪个记录，如果没有（不是null或者undefined，而是没有key），说明是添加
+ to: eleArray中元素，要移动到哪个记录，如果没有，说明是删除
+ eleArray:要操作的记录。可以为空数组
+}</t>
   </si>
   <si>
     <t>当前暂时用于记录群事件。
@@ -501,56 +292,241 @@
 3. targetId--事件中被处理的对象
 4. status--事件状态
 5. 事件创建的时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>editSubField</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于字段值为array或者mixed操作，对其中的元素进行添加/删除/移动（使用edit，而不是update，防止混淆）
-fieldName:{from: eleArray中元素，原始位于哪个记录，如果没有（不是null或者undefined，而是没有key），说明是添加
- to: eleArray中元素，要移动到哪个记录，如果没有，说明是删除
- eleArray:要操作的记录。可以为空数组
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，选择全部记率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+{field: [  {value:xxx}  ,   {value:yyy,comOp:'gt'}   ]  }
+{fkField: { relatedFkField: [ {value:zzzz,  comOp:'lt' }]  }}</t>
+    </r>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">√
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除以后，需要把后续的记录补上</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">√
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补上记录的条件</t>
+    </r>
+  </si>
+  <si>
+    <t>filterFieldvalue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{field:xxx }
+{fkField:{relatedFkField:xxx} }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为过滤字段值只考虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作，所以无需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">comOP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果值为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(null)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则返回所有记录；如果超出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>maxLe.gth/max/min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则不查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，直接返回空数组</t>
+    </r>
+  </si>
+  <si>
+    <t>match:4</t>
   </si>
   <si>
     <t>一个字段对应fk字段的多个field，传递searchParams/filterFieldValue时，需要显式的指明fkField对应的记录中，对那个field进行查找/过滤
 例如，bill中，parentBillType定义为{coll:billType, allowFields:[field1,field2]}
 说明pararentBillType的值为objectId，可以通过对billType的field1或者field2进行查找，获得objectId数组，如果pararentBillType在此数组中存在，则取出。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>recIdArr</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>field:{value:xxx}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>singleField</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>match:4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,69 +538,354 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -632,9 +893,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -657,21 +1160,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -958,239 +1505,239 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="45.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="43.6328125" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" customWidth="1"/>
-    <col min="8" max="8" width="57.08984375" customWidth="1"/>
-    <col min="9" max="9" width="54.36328125" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="45.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.9083333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.45" customWidth="1"/>
+    <col min="6" max="6" width="43.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.9083333333333" customWidth="1"/>
+    <col min="8" max="8" width="57.0916666666667" customWidth="1"/>
+    <col min="9" max="9" width="54.3666666666667" customWidth="1"/>
+    <col min="10" max="10" width="17.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="64" customHeight="1" spans="1:11">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="112" x14ac:dyDescent="0.25">
+    <row r="3" ht="94.5" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="56.5" x14ac:dyDescent="0.25">
+    <row r="4" ht="57" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" ht="41.25" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="143" x14ac:dyDescent="0.25">
+    <row r="6" ht="127.5" spans="1:11">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="105.75" customHeight="1" spans="1:7">
+      <c r="A9" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1203,37 +1750,43 @@
   <mergeCells count="1">
     <mergeCell ref="A9:G9"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/POST参数/post参数.xlsx
+++ b/doc/POST参数/post参数.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ss_vue_express\doc\POST参数\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24140" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -22,14 +27,14 @@
     <author>Ada</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>ZHANG Wei AG:</t>
         </r>
@@ -37,7 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -55,7 +60,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>validatePartFormat+validateCURecordInfoFormat</t>
         </r>
@@ -72,7 +77,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>validateSingleRecorderFieldValue</t>
         </r>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1">
+    <comment ref="F4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,14 +113,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>ZHANG Wei AG:</t>
         </r>
@@ -123,7 +128,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -143,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>recordInfo</t>
   </si>
@@ -161,9 +166,6 @@
   </si>
   <si>
     <t>filterFieldValue</t>
-  </si>
-  <si>
-    <t>editSubField</t>
   </si>
   <si>
     <t>eventField</t>
@@ -190,7 +192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">×
 </t>
@@ -214,7 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">×
 </t>
@@ -241,7 +243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">×
 </t>
@@ -262,7 +264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">×
 </t>
@@ -302,7 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{}</t>
     </r>
@@ -320,7 +322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 {field: [  {value:xxx}  ,   {value:yyy,comOp:'gt'}   ]  }
@@ -336,7 +338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">√
 </t>
@@ -357,7 +359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">√
 </t>
@@ -381,7 +383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{field:xxx }
 {fkField:{relatedFkField:xxx} }</t>
@@ -401,7 +403,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -420,7 +422,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>like</t>
     </r>
@@ -438,7 +440,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">comOP
 </t>
@@ -457,7 +459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(null)</t>
     </r>
@@ -475,7 +477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>maxLe.gth/max/min</t>
     </r>
@@ -493,7 +495,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>db</t>
     </r>
@@ -514,19 +516,17 @@
     <t>一个字段对应fk字段的多个field，传递searchParams/filterFieldValue时，需要显式的指明fkField对应的记录中，对那个field进行查找/过滤
 例如，bill中，parentBillType定义为{coll:billType, allowFields:[field1,field2]}
 说明pararentBillType的值为objectId，可以通过对billType的field1或者field2进行查找，获得objectId数组，如果pararentBillType在此数组中存在，则取出。</t>
+  </si>
+  <si>
+    <t>editSubField(对象)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,151 +538,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -690,202 +546,44 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -893,251 +591,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,71 +610,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1505,33 +917,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.2666666666667" customWidth="1"/>
-    <col min="2" max="2" width="45.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="19.9083333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.45" customWidth="1"/>
-    <col min="6" max="6" width="43.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.9083333333333" customWidth="1"/>
-    <col min="8" max="8" width="57.0916666666667" customWidth="1"/>
-    <col min="9" max="9" width="54.3666666666667" customWidth="1"/>
-    <col min="10" max="10" width="17.9083333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="43.6328125" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" customWidth="1"/>
+    <col min="8" max="8" width="57.08984375" customWidth="1"/>
+    <col min="9" max="9" width="54.36328125" customWidth="1"/>
+    <col min="10" max="10" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1551,242 +963,236 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="64" customHeight="1" spans="1:11">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="94.5" spans="1:11">
+    <row r="3" spans="1:11" ht="112" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:11">
+    <row r="4" spans="1:11" ht="56.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="41.25" spans="1:11">
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="127.5" spans="1:11">
+    <row r="6" spans="1:11" ht="143" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" ht="105.75" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A9:G9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/POST参数/post参数.xlsx
+++ b/doc/POST参数/post参数.xlsx
@@ -91,6 +91,43 @@
         </r>
       </text>
     </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ZHANG Wei AG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+{
+      fieldName1:
+          {
+                from:
+                to:
+                eleArray
+          },
+      fieldName2:
+          {
+                from:
+                to:
+                eleArray
+          },
+}</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F4" authorId="1" shapeId="0">
       <text>
         <r>
@@ -280,13 +317,6 @@
     </r>
   </si>
   <si>
-    <t>用于字段值为array或者mixed操作，对其中的元素进行添加/删除/移动（使用edit，而不是update，防止混淆）
-fieldName:{from: eleArray中元素，原始位于哪个记录，如果没有（不是null或者undefined，而是没有key），说明是添加
- to: eleArray中元素，要移动到哪个记录，如果没有，说明是删除
- eleArray:要操作的记录。可以为空数组
-}</t>
-  </si>
-  <si>
     <t>当前暂时用于记录群事件。
 包括几个子字段：
 1. eventId--id含义定义在js文件中，减少db的查询
@@ -521,12 +551,20 @@
     <t>editSubField(对象)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>用于字段值为array或者mixed操作，对其中的元素进行添加/删除/移动（使用edit，而不是update，防止混淆）
+fieldName:{from: eleArray中元素，原始位于哪个记录，如果没有（不是null或者undefined，而是没有key），说明是添加
+ to: eleArray中元素，要移动到哪个记录，如果没有，说明是删除
+ eleArray:要操作的记录。可以为空数组
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +611,19 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -926,7 +977,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -963,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1033,10 +1084,10 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -1047,7 +1098,7 @@
     </row>
     <row r="4" spans="1:11" ht="56.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1062,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -1082,7 +1133,7 @@
     </row>
     <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -1091,13 +1142,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -1117,7 +1168,7 @@
     </row>
     <row r="6" spans="1:11" ht="143" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -1135,21 +1186,21 @@
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>

--- a/doc/POST参数/post参数.xlsx
+++ b/doc/POST参数/post参数.xlsx
@@ -91,6 +91,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ZHANG Wei AG:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对array进行操作
+field:{add:[id1],remove:[id2]}</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -150,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>recordInfo</t>
   </si>
@@ -559,12 +586,16 @@
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>manipulateArray</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +655,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -974,27 +1013,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.26953125" customWidth="1"/>
     <col min="2" max="2" width="45.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.90625" customWidth="1"/>
     <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" customWidth="1"/>
     <col min="7" max="7" width="23.90625" customWidth="1"/>
     <col min="8" max="8" width="57.08984375" customWidth="1"/>
     <col min="9" max="9" width="54.36328125" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" customWidth="1"/>
+    <col min="10" max="11" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1022,11 +1061,14 @@
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1057,11 +1099,14 @@
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="112" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="112" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1092,11 +1137,14 @@
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="56.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="56.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1127,11 +1175,14 @@
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1162,11 +1213,14 @@
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="143" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="143" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1194,11 +1248,11 @@
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -1215,8 +1269,8 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/POST参数/post参数.xlsx
+++ b/doc/POST参数/post参数.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24140" windowHeight="12630"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24140" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对单个字段进行检查（例如检查用户唯一性已经密码的正确性
@@ -68,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>验证格式
@@ -85,6 +87,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>验证单个值</t>
@@ -115,6 +118,112 @@
           </rPr>
           <t>对array进行操作
 field:{add:[id1],remove:[id2]}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ZHANG Wei AG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可以用在任何method。
+2.格式简单，直接通过validateValue验证</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ZHANG Wei AG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>同captcha
+1. 适用任何method
+2. 直接通过validateVlaue验证</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ZHANG Wei AG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>格式简单，validateFormat中检查是否为数组，validateVlaue中检查是否为dataUrl（正则）
+Size散落在其他函数中检查</t>
         </r>
       </text>
     </comment>
@@ -162,6 +271,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Ada:</t>
@@ -170,6 +280,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -201,6 +312,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>判断输入记录是否和db中存储的一直（例如登录）</t>
@@ -212,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>recordInfo</t>
   </si>
@@ -266,6 +378,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>创建之后返回第一页</t>
@@ -290,6 +403,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>创建之后所有条件归零（防止新建数据无法显示）</t>
@@ -317,6 +431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>update之后不改变页数</t>
@@ -338,6 +453,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>理由同上</t>
@@ -370,6 +486,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，选择全部记率</t>
@@ -405,6 +522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>删除以后，需要把后续的记录补上</t>
@@ -426,6 +544,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>补上记录的条件</t>
@@ -450,6 +569,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -470,6 +590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>因为过滤字段值只考虑</t>
@@ -488,6 +609,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>操作，所以无需</t>
@@ -507,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果值为空</t>
@@ -525,6 +648,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，则返回所有记录；如果超出</t>
@@ -543,6 +667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，则不查</t>
@@ -561,6 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，直接返回空数组</t>
@@ -590,12 +716,24 @@
     <t>manipulateArray</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>captcha</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataUrl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +751,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -629,17 +768,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -664,6 +806,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -687,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +858,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1013,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1193,7 @@
     <col min="10" max="11" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1067,8 +1227,17 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="112" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1144,7 +1313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="56.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="56.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1220,7 +1389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="143" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="143" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1252,16 +1421,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:15" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/POST参数/post参数.xlsx
+++ b/doc/POST参数/post参数.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ss_vue_express\doc\POST参数\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U\ss_vue_express\doc\POST参数\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,6 +24,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ZHANG Wei AG</author>
+    <author>Administrator</author>
     <author>Ada</author>
   </authors>
   <commentList>
@@ -224,6 +225,31 @@
           </rPr>
           <t>格式简单，validateFormat中检查是否为数组，validateVlaue中检查是否为dataUrl（正则）
 Size散落在其他函数中检查</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1. 采用post/put方法上传
+2. 和CRUD无联系（不是create/update/delete/get），只是用来传递选择好友的信息</t>
         </r>
       </text>
     </comment>
@@ -264,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>recordInfo</t>
   </si>
@@ -705,39 +731,41 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>manipulateArray</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>captcha</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataUrl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>chooseFriend</t>
+  </si>
+  <si>
     <t>用于字段值为array或者mixed操作，对其中的元素进行添加/删除/移动（使用edit，而不是update，防止混淆）
 fieldName:{from: eleArray中元素，原始位于哪个记录，如果没有（不是null或者undefined，而是没有key），说明是添加
  to: eleArray中元素，要移动到哪个记录，如果没有，说明是删除
  eleArray:要操作的记录。可以为空数组
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>manipulateArray</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>captcha</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sms</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataUrl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -780,7 +808,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -816,10 +844,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1173,13 +1214,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.26953125" customWidth="1"/>
     <col min="2" max="2" width="45.36328125" customWidth="1"/>
@@ -1191,9 +1232,10 @@
     <col min="8" max="8" width="57.08984375" customWidth="1"/>
     <col min="9" max="9" width="54.36328125" customWidth="1"/>
     <col min="10" max="11" width="17.90625" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1222,22 +1264,25 @@
         <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="64" customHeight="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="130.5">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -1313,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="56.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="70.5">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1351,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="42">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="143" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="143">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1421,7 +1466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="105.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1449,7 +1494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,7 +1508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
